--- a/backend/reports/orders_2025-10.xlsx
+++ b/backend/reports/orders_2025-10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,11 @@
           <t>processed_at</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>total_price</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -494,6 +499,7 @@
           <t>2025-10-09 17:20:12</t>
         </is>
       </c>
+      <c r="G2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -524,6 +530,7 @@
           <t>2025-10-09 17:20:23</t>
         </is>
       </c>
+      <c r="G3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -554,6 +561,7 @@
           <t>2025-10-09 17:22:53</t>
         </is>
       </c>
+      <c r="G4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -584,6 +592,7 @@
           <t>2025-10-09 17:23:00</t>
         </is>
       </c>
+      <c r="G5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -614,6 +623,7 @@
           <t>2025-10-09 17:23:14</t>
         </is>
       </c>
+      <c r="G6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -644,6 +654,7 @@
           <t>2025-10-09 17:28:04</t>
         </is>
       </c>
+      <c r="G7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -674,6 +685,7 @@
           <t>2025-10-09 17:30:01</t>
         </is>
       </c>
+      <c r="G8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -704,6 +716,7 @@
           <t>2025-10-09 17:30:22</t>
         </is>
       </c>
+      <c r="G9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -734,6 +747,7 @@
           <t>2025-10-09 17:30:44</t>
         </is>
       </c>
+      <c r="G10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -764,6 +778,7 @@
           <t>2025-10-09 17:30:58</t>
         </is>
       </c>
+      <c r="G11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -794,6 +809,7 @@
           <t>2025-10-09 17:34:26</t>
         </is>
       </c>
+      <c r="G12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -824,6 +840,7 @@
           <t>2025-10-09 18:49:41</t>
         </is>
       </c>
+      <c r="G13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -854,6 +871,7 @@
           <t>2025-10-09 18:50:00</t>
         </is>
       </c>
+      <c r="G14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -884,6 +902,7 @@
           <t>2025-10-09 18:50:09</t>
         </is>
       </c>
+      <c r="G15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -914,6 +933,7 @@
           <t>2025-10-09 18:53:37</t>
         </is>
       </c>
+      <c r="G16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -943,6 +963,40 @@
         <is>
           <t>2025-10-09 18:58:45</t>
         </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>68e7e4a071be8d421e6fdfab</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>pratyushojha77@gmail.com</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>68e7e33f71be8d421e6fdfaa</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>purchased</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2025-10-09 22:17:21</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>12341</v>
       </c>
     </row>
   </sheetData>

--- a/backend/reports/orders_2025-10.xlsx
+++ b/backend/reports/orders_2025-10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,11 @@
           <t>total_price</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>phone_number</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -500,6 +505,7 @@
         </is>
       </c>
       <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -531,6 +537,7 @@
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -562,6 +569,7 @@
         </is>
       </c>
       <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -593,6 +601,7 @@
         </is>
       </c>
       <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -624,6 +633,7 @@
         </is>
       </c>
       <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -655,6 +665,7 @@
         </is>
       </c>
       <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -686,6 +697,7 @@
         </is>
       </c>
       <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -717,6 +729,7 @@
         </is>
       </c>
       <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -748,6 +761,7 @@
         </is>
       </c>
       <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -779,6 +793,7 @@
         </is>
       </c>
       <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -810,6 +825,7 @@
         </is>
       </c>
       <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -841,6 +857,7 @@
         </is>
       </c>
       <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -872,6 +889,7 @@
         </is>
       </c>
       <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -903,6 +921,7 @@
         </is>
       </c>
       <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -934,6 +953,7 @@
         </is>
       </c>
       <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -965,6 +985,7 @@
         </is>
       </c>
       <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -997,6 +1018,45 @@
       </c>
       <c r="G18" t="n">
         <v>12341</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>68e7eaa6541ff8cf450761d9</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>durgafurniture2412@gmail.com</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>68e7ea61541ff8cf450761d8</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>purchased</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2025-10-09 22:33:22</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>23424</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>8081800455</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/backend/reports/orders_2025-10.xlsx
+++ b/backend/reports/orders_2025-10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1053,7 +1053,43 @@
       <c r="G19" t="n">
         <v>23424</v>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="H19" t="n">
+        <v>8081800455</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>68e7f2daf0c75607870fb10b</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>pratyushojha77@gmail.com</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>68e7ea60541ff8cf450761d7</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>purchased</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2025-10-09 23:24:31</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>23424</v>
+      </c>
+      <c r="H20" t="inlineStr">
         <is>
           <t>8081800455</t>
         </is>

--- a/backend/reports/orders_2025-10.xlsx
+++ b/backend/reports/orders_2025-10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1089,7 +1089,43 @@
       <c r="G20" t="n">
         <v>23424</v>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="H20" t="n">
+        <v>8081800455</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>68ea2d2cdce18920b4ee1838</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>durgafurniture2412@gmail.com</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>68ea2cd3dce18920b4ee1836</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>purchased</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2025-10-11 15:41:42</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>2</v>
+      </c>
+      <c r="H21" t="inlineStr">
         <is>
           <t>8081800455</t>
         </is>

--- a/backend/reports/orders_2025-10.xlsx
+++ b/backend/reports/orders_2025-10.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Orders" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,13 +425,39 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:X24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="26" customWidth="1" min="1" max="1"/>
+    <col width="30" customWidth="1" min="2" max="2"/>
+    <col width="26" customWidth="1" min="3" max="3"/>
+    <col width="10" customWidth="1" min="4" max="4"/>
+    <col width="11" customWidth="1" min="5" max="5"/>
+    <col width="21" customWidth="1" min="6" max="6"/>
+    <col width="13" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="26" customWidth="1" min="9" max="9"/>
+    <col width="21" customWidth="1" min="10" max="10"/>
+    <col width="11" customWidth="1" min="11" max="11"/>
+    <col width="18" customWidth="1" min="12" max="12"/>
+    <col width="30" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="26" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="10" customWidth="1" min="17" max="17"/>
+    <col width="16" customWidth="1" min="18" max="18"/>
+    <col width="10" customWidth="1" min="19" max="19"/>
+    <col width="12" customWidth="1" min="20" max="20"/>
+    <col width="18" customWidth="1" min="21" max="21"/>
+    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="9" customWidth="1" min="24" max="24"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -474,6 +500,86 @@
           <t>phone_number</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Order ID</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Processed At</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Customer Name</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Customer Email</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Phone Number</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Product ID</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Product Name</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Price per Unit</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Quantity</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Item Total</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Delivery Address</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>City</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>State</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>Pincode</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -506,6 +612,22 @@
       </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="inlineStr"/>
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="inlineStr"/>
+      <c r="X2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -538,6 +660,22 @@
       </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr"/>
+      <c r="X3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -570,6 +708,22 @@
       </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -602,6 +756,22 @@
       </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="inlineStr"/>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr"/>
+      <c r="X5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -634,6 +804,22 @@
       </c>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="inlineStr"/>
+      <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -666,6 +852,22 @@
       </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" t="inlineStr"/>
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="inlineStr"/>
+      <c r="X7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -698,6 +900,22 @@
       </c>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="inlineStr"/>
+      <c r="U8" t="inlineStr"/>
+      <c r="V8" t="inlineStr"/>
+      <c r="W8" t="inlineStr"/>
+      <c r="X8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -730,6 +948,22 @@
       </c>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="inlineStr"/>
+      <c r="U9" t="inlineStr"/>
+      <c r="V9" t="inlineStr"/>
+      <c r="W9" t="inlineStr"/>
+      <c r="X9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -762,6 +996,22 @@
       </c>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="inlineStr"/>
+      <c r="U10" t="inlineStr"/>
+      <c r="V10" t="inlineStr"/>
+      <c r="W10" t="inlineStr"/>
+      <c r="X10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -794,6 +1044,22 @@
       </c>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="inlineStr"/>
+      <c r="U11" t="inlineStr"/>
+      <c r="V11" t="inlineStr"/>
+      <c r="W11" t="inlineStr"/>
+      <c r="X11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -826,6 +1092,22 @@
       </c>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr"/>
+      <c r="S12" t="inlineStr"/>
+      <c r="T12" t="inlineStr"/>
+      <c r="U12" t="inlineStr"/>
+      <c r="V12" t="inlineStr"/>
+      <c r="W12" t="inlineStr"/>
+      <c r="X12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -858,6 +1140,22 @@
       </c>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="inlineStr"/>
+      <c r="T13" t="inlineStr"/>
+      <c r="U13" t="inlineStr"/>
+      <c r="V13" t="inlineStr"/>
+      <c r="W13" t="inlineStr"/>
+      <c r="X13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -890,6 +1188,22 @@
       </c>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr"/>
+      <c r="T14" t="inlineStr"/>
+      <c r="U14" t="inlineStr"/>
+      <c r="V14" t="inlineStr"/>
+      <c r="W14" t="inlineStr"/>
+      <c r="X14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -922,6 +1236,22 @@
       </c>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="inlineStr"/>
+      <c r="P15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr"/>
+      <c r="S15" t="inlineStr"/>
+      <c r="T15" t="inlineStr"/>
+      <c r="U15" t="inlineStr"/>
+      <c r="V15" t="inlineStr"/>
+      <c r="W15" t="inlineStr"/>
+      <c r="X15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -954,6 +1284,22 @@
       </c>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="inlineStr"/>
+      <c r="P16" t="inlineStr"/>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr"/>
+      <c r="S16" t="inlineStr"/>
+      <c r="T16" t="inlineStr"/>
+      <c r="U16" t="inlineStr"/>
+      <c r="V16" t="inlineStr"/>
+      <c r="W16" t="inlineStr"/>
+      <c r="X16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -986,6 +1332,22 @@
       </c>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
+      <c r="O17" t="inlineStr"/>
+      <c r="P17" t="inlineStr"/>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr"/>
+      <c r="S17" t="inlineStr"/>
+      <c r="T17" t="inlineStr"/>
+      <c r="U17" t="inlineStr"/>
+      <c r="V17" t="inlineStr"/>
+      <c r="W17" t="inlineStr"/>
+      <c r="X17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1020,6 +1382,22 @@
         <v>12341</v>
       </c>
       <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
+      <c r="O18" t="inlineStr"/>
+      <c r="P18" t="inlineStr"/>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr"/>
+      <c r="S18" t="inlineStr"/>
+      <c r="T18" t="inlineStr"/>
+      <c r="U18" t="inlineStr"/>
+      <c r="V18" t="inlineStr"/>
+      <c r="W18" t="inlineStr"/>
+      <c r="X18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1056,6 +1434,22 @@
       <c r="H19" t="n">
         <v>8081800455</v>
       </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
+      <c r="O19" t="inlineStr"/>
+      <c r="P19" t="inlineStr"/>
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr"/>
+      <c r="S19" t="inlineStr"/>
+      <c r="T19" t="inlineStr"/>
+      <c r="U19" t="inlineStr"/>
+      <c r="V19" t="inlineStr"/>
+      <c r="W19" t="inlineStr"/>
+      <c r="X19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1092,6 +1486,22 @@
       <c r="H20" t="n">
         <v>8081800455</v>
       </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
+      <c r="O20" t="inlineStr"/>
+      <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr"/>
+      <c r="S20" t="inlineStr"/>
+      <c r="T20" t="inlineStr"/>
+      <c r="U20" t="inlineStr"/>
+      <c r="V20" t="inlineStr"/>
+      <c r="W20" t="inlineStr"/>
+      <c r="X20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1125,9 +1535,239 @@
       <c r="G21" t="n">
         <v>2</v>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="H21" t="n">
+        <v>8081800455</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr"/>
+      <c r="S21" t="inlineStr"/>
+      <c r="T21" t="inlineStr"/>
+      <c r="U21" t="inlineStr"/>
+      <c r="V21" t="inlineStr"/>
+      <c r="W21" t="inlineStr"/>
+      <c r="X21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr"/>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>68ea3486994126c30422aefc</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>2025-10-11 16:13:01</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>purchased</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>Durganand panday</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>durgafurniture2412@gmail.com</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
+        <v>8081800455</v>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>68ea3471994126c30422aefb</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>surah</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>man</t>
+        </is>
+      </c>
+      <c r="R22" t="n">
+        <v>23212.99</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1</v>
+      </c>
+      <c r="T22" t="n">
+        <v>23212.99</v>
+      </c>
+      <c r="U22" t="inlineStr"/>
+      <c r="V22" t="inlineStr"/>
+      <c r="W22" t="inlineStr"/>
+      <c r="X22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr"/>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>68f281fc673944ed91f5cc8c</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>2025-10-17 23:21:56</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>purchased</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>Pratyush Ojha</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>pratyushojha77@gmail.com</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
+        <v>8081800455</v>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>68f281cb673944ed91f5cc89</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>Mandir</t>
+        </is>
+      </c>
+      <c r="R23" t="n">
+        <v>11231</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1</v>
+      </c>
+      <c r="T23" t="n">
+        <v>11231</v>
+      </c>
+      <c r="U23" t="inlineStr"/>
+      <c r="V23" t="inlineStr"/>
+      <c r="W23" t="inlineStr"/>
+      <c r="X23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr"/>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>68f281ed673944ed91f5cc8b</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>2025-10-17 23:22:00</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>purchased</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>Pratyush Ojha</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>pratyushojha77@gmail.com</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
         <is>
           <t>8081800455</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>68f281cd673944ed91f5cc8a</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>Mandir</t>
+        </is>
+      </c>
+      <c r="R24" t="n">
+        <v>11231</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1</v>
+      </c>
+      <c r="T24" t="n">
+        <v>11231</v>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>N/A</t>
         </is>
       </c>
     </row>
